--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -424,7 +424,7 @@
     <t>MonacoPlace</t>
   </si>
   <si>
-    <t>MonacoQualfiying</t>
+    <t>MonacoQualifying</t>
   </si>
   <si>
     <t>MonacoFastestLap</t>

--- a/The_Alternative_F1.xlsx
+++ b/The_Alternative_F1.xlsx
@@ -10,6 +10,8 @@
     <sheet state="visible" name="S2Schedule" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Season3" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="S3Schedule" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Season4" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="S4Schedule" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="186">
   <si>
     <t>Positions</t>
   </si>
@@ -340,229 +342,241 @@
     <t>Red Bull</t>
   </si>
   <si>
+    <t>Josh L</t>
+  </si>
+  <si>
+    <t>WannaGetRowdy</t>
+  </si>
+  <si>
+    <t>Boz</t>
+  </si>
+  <si>
+    <t>Bositive</t>
+  </si>
+  <si>
+    <t>Ferrari</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Mediummnh</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Silverstone</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Zandvoort</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Suzuka</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>COTA</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Vegas</t>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+  </si>
+  <si>
+    <t>MonacoPlace</t>
+  </si>
+  <si>
+    <t>MonacoQualifying</t>
+  </si>
+  <si>
+    <t>MonacoFastestLap</t>
+  </si>
+  <si>
+    <t>MonacoPoints</t>
+  </si>
+  <si>
+    <t>ChinaPlace</t>
+  </si>
+  <si>
+    <t>ChinaQualifying</t>
+  </si>
+  <si>
+    <t>ChinaFastestLap</t>
+  </si>
+  <si>
+    <t>ChinaPoints</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>DELREAL718</t>
+  </si>
+  <si>
+    <t>Alpine</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>JoshuaRosario89</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>penguin2780</t>
+  </si>
+  <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>Yeti</t>
+  </si>
+  <si>
+    <t>aYETl</t>
+  </si>
+  <si>
+    <t>AlphaTauri</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>China SprintPlace</t>
+  </si>
+  <si>
+    <t>China SprintQualifying</t>
+  </si>
+  <si>
+    <t>China SprintFastestLap</t>
+  </si>
+  <si>
+    <t>China SprintPoints</t>
+  </si>
+  <si>
+    <t>BakuPlace</t>
+  </si>
+  <si>
+    <t>BakuQualifying</t>
+  </si>
+  <si>
+    <t>BakuFastestLap</t>
+  </si>
+  <si>
+    <t>BakuPoints</t>
+  </si>
+  <si>
+    <t>Austria SprintPlace</t>
+  </si>
+  <si>
+    <t>Austria SprintQualifying</t>
+  </si>
+  <si>
+    <t>Austria SprintFastestLap</t>
+  </si>
+  <si>
+    <t>Austria SprintPoints</t>
+  </si>
+  <si>
+    <t>COTA SprintPlace</t>
+  </si>
+  <si>
+    <t>COTA SprintQualifying</t>
+  </si>
+  <si>
+    <t>COTA SprintFastestLap</t>
+  </si>
+  <si>
+    <t>COTA SprintPoints</t>
+  </si>
+  <si>
+    <t>PrisonMike</t>
+  </si>
+  <si>
+    <t>VCARB</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>PKnowlez</t>
+  </si>
+  <si>
+    <t>Brently</t>
+  </si>
+  <si>
+    <t>Brentuar</t>
+  </si>
+  <si>
+    <t>aYETI</t>
+  </si>
+  <si>
+    <t>China Sprint</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Austria Sprint</t>
+  </si>
+  <si>
+    <t>COTA Sprint</t>
+  </si>
+  <si>
     <t>Josh</t>
   </si>
   <si>
-    <t>WannaGetRowdy</t>
-  </si>
-  <si>
-    <t>Boz</t>
-  </si>
-  <si>
-    <t>Bositive</t>
-  </si>
-  <si>
-    <t>Ferrari</t>
-  </si>
-  <si>
-    <t>Gary</t>
-  </si>
-  <si>
-    <t>Mediummnh</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Silverstone</t>
-  </si>
-  <si>
-    <t>Spa</t>
-  </si>
-  <si>
-    <t>Zandvoort</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Suzuka</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>COTA</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Vegas</t>
-  </si>
-  <si>
-    <t>Abu Dhabi</t>
-  </si>
-  <si>
-    <t>MonacoPlace</t>
-  </si>
-  <si>
-    <t>MonacoQualifying</t>
-  </si>
-  <si>
-    <t>MonacoFastestLap</t>
-  </si>
-  <si>
-    <t>MonacoPoints</t>
-  </si>
-  <si>
-    <t>ChinaPlace</t>
-  </si>
-  <si>
-    <t>ChinaQualifying</t>
-  </si>
-  <si>
-    <t>ChinaFastestLap</t>
-  </si>
-  <si>
-    <t>ChinaPoints</t>
-  </si>
-  <si>
-    <t>Del</t>
-  </si>
-  <si>
-    <t>DELREAL718</t>
-  </si>
-  <si>
-    <t>Alpine</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>JoshuaRosario89</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>penguin2780</t>
-  </si>
-  <si>
-    <t>Alfa Romeo</t>
-  </si>
-  <si>
-    <t>Yeti</t>
-  </si>
-  <si>
-    <t>aYETl</t>
-  </si>
-  <si>
-    <t>AlphaTauri</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>China SprintPlace</t>
-  </si>
-  <si>
-    <t>China SprintQualifying</t>
-  </si>
-  <si>
-    <t>China SprintFastestLap</t>
-  </si>
-  <si>
-    <t>China SprintPoints</t>
-  </si>
-  <si>
-    <t>BakuPlace</t>
-  </si>
-  <si>
-    <t>BakuQualifying</t>
-  </si>
-  <si>
-    <t>BakuFastestLap</t>
-  </si>
-  <si>
-    <t>BakuPoints</t>
-  </si>
-  <si>
-    <t>Austria SprintPlace</t>
-  </si>
-  <si>
-    <t>Austria SprintQualifying</t>
-  </si>
-  <si>
-    <t>Austria SprintFastestLap</t>
-  </si>
-  <si>
-    <t>Austria SprintPoints</t>
-  </si>
-  <si>
-    <t>COTA SprintPlace</t>
-  </si>
-  <si>
-    <t>COTA SprintQualifying</t>
-  </si>
-  <si>
-    <t>COTA SprintFastestLap</t>
-  </si>
-  <si>
-    <t>COTA SprintPoints</t>
-  </si>
-  <si>
-    <t>PrisonMike</t>
-  </si>
-  <si>
-    <t>VCARB</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>PKnowlez</t>
-  </si>
-  <si>
-    <t>Brently</t>
-  </si>
-  <si>
-    <t>Brentuar</t>
-  </si>
-  <si>
-    <t>aYETI</t>
-  </si>
-  <si>
-    <t>China Sprint</t>
-  </si>
-  <si>
-    <t>Baku</t>
-  </si>
-  <si>
-    <t>Austria Sprint</t>
-  </si>
-  <si>
-    <t>COTA Sprint</t>
+    <t>JellyWaffles37</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>NC_Newman</t>
   </si>
 </sst>
 </file>
@@ -642,6 +656,14 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -8196,4 +8218,167 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="14.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>